--- a/Data Quisioner.xlsx
+++ b/Data Quisioner.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
   <si>
     <t>No</t>
   </si>
@@ -186,6 +186,12 @@
   </si>
   <si>
     <t>signatureImage/60d2d628865fa.png</t>
+  </si>
+  <si>
+    <t>2021-07-13</t>
+  </si>
+  <si>
+    <t>signatureImage/60deda5a0392e.png</t>
   </si>
   <si>
     <t>Rata-Rata</t>
@@ -560,10 +566,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:R26"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="O26" sqref="O26"/>
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -576,12 +582,12 @@
     <col min="6" max="6" width="17.567139" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="25.85083" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="19.995117" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="18.709717" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="18.709717" bestFit="true" customWidth="true" style="0"/>
     <col min="11" max="11" width="30.563965" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="36.419678" bestFit="true" customWidth="true" style="0"/>
     <col min="13" max="13" width="28.135986" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="17.567139" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="18.709717" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="21.137695" bestFit="true" customWidth="true" style="0"/>
     <col min="16" max="16" width="8.140869" bestFit="true" customWidth="true" style="0"/>
     <col min="17" max="17" width="13.996582" bestFit="true" customWidth="true" style="0"/>
@@ -1821,36 +1827,90 @@
       </c>
     </row>
     <row r="26" spans="1:18">
-      <c r="H26" s="3" t="s">
+      <c r="A26" s="1">
+        <v>23</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I26" s="3">
+      <c r="C26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" s="1">
+        <v>4</v>
+      </c>
+      <c r="J26" s="1">
+        <v>3</v>
+      </c>
+      <c r="K26" s="1">
+        <v>3</v>
+      </c>
+      <c r="L26" s="1">
+        <v>4</v>
+      </c>
+      <c r="M26" s="1">
+        <v>4</v>
+      </c>
+      <c r="N26" s="1">
+        <v>3</v>
+      </c>
+      <c r="O26" s="1">
+        <v>3</v>
+      </c>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="H27" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I27" s="3">
         <f>AVERAGE(I:I)</f>
-        <v>3.6086956521739</v>
-      </c>
-      <c r="J26" s="3">
+        <v>3.625</v>
+      </c>
+      <c r="J27" s="3">
         <f>AVERAGE(J:J)</f>
-        <v>2.7826086956522</v>
-      </c>
-      <c r="K26" s="3">
+        <v>2.7916666666667</v>
+      </c>
+      <c r="K27" s="3">
         <f>AVERAGE(K:K)</f>
-        <v>3.3913043478261</v>
-      </c>
-      <c r="L26" s="3">
+        <v>3.375</v>
+      </c>
+      <c r="L27" s="3">
         <f>AVERAGE(L:L)</f>
-        <v>3.4347826086957</v>
-      </c>
-      <c r="M26" s="3">
+        <v>3.4583333333333</v>
+      </c>
+      <c r="M27" s="3">
         <f>AVERAGE(M:M)</f>
-        <v>3.4347826086957</v>
-      </c>
-      <c r="N26" s="3">
+        <v>3.4583333333333</v>
+      </c>
+      <c r="N27" s="3">
         <f>AVERAGE(N:N)</f>
-        <v>3.304347826087</v>
-      </c>
-      <c r="O26" s="3">
+        <v>3.2916666666667</v>
+      </c>
+      <c r="O27" s="3">
         <f>AVERAGE(O:O)</f>
-        <v>3.6521739130435</v>
+        <v>3.625</v>
       </c>
     </row>
   </sheetData>

--- a/Data Quisioner.xlsx
+++ b/Data Quisioner.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="89">
   <si>
     <t>No</t>
   </si>
@@ -71,127 +71,214 @@
     <t>Draw Signature</t>
   </si>
   <si>
-    <t>2021-06-04</t>
+    <t>2021-07-22</t>
+  </si>
+  <si>
+    <t>PLN</t>
+  </si>
+  <si>
+    <t>Multinasional</t>
+  </si>
+  <si>
+    <t>Dadang</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>S1 Teknik Informatika</t>
+  </si>
+  <si>
+    <t>Sedang</t>
+  </si>
+  <si>
+    <t>Lili</t>
+  </si>
+  <si>
+    <t>signatureImage/60f28a29e8a6b.png</t>
+  </si>
+  <si>
+    <t>2021-07-29</t>
+  </si>
+  <si>
+    <t>PLN Lampung</t>
+  </si>
+  <si>
+    <t>zaza</t>
+  </si>
+  <si>
+    <t>Teknisi</t>
+  </si>
+  <si>
+    <t>S1 Teknik Elektro</t>
+  </si>
+  <si>
+    <t>Tinggi</t>
+  </si>
+  <si>
+    <t>Lala</t>
+  </si>
+  <si>
+    <t>signatureImage/60f28aa70d8a2.png</t>
+  </si>
+  <si>
+    <t>2021-07-31</t>
+  </si>
+  <si>
+    <t>PT. PLN jakarta</t>
+  </si>
+  <si>
+    <t>Diding</t>
+  </si>
+  <si>
+    <t>D3 Teknik Elektro</t>
+  </si>
+  <si>
+    <t>signatureImage/60f28ae808fed.png</t>
+  </si>
+  <si>
+    <t>2022-09-10</t>
+  </si>
+  <si>
+    <t>PT. Jaya Abadi</t>
+  </si>
+  <si>
+    <t>Lokal/Wilayah/Berwirausaha tidak berbadan hukum</t>
+  </si>
+  <si>
+    <t>Fina Zara</t>
+  </si>
+  <si>
+    <t>Supervisor</t>
+  </si>
+  <si>
+    <t>S1 Teknik Sipil</t>
+  </si>
+  <si>
+    <t>Dono</t>
+  </si>
+  <si>
+    <t>signatureImage/60f28b76c71fa.png</t>
+  </si>
+  <si>
+    <t>Caca Clarisa</t>
+  </si>
+  <si>
+    <t>Junior Web</t>
+  </si>
+  <si>
+    <t>signatureImage/60f28bd02cde7.png</t>
+  </si>
+  <si>
+    <t>2021-07-23</t>
+  </si>
+  <si>
+    <t>Nasional/Berwirausaha berbadan hukum</t>
+  </si>
+  <si>
+    <t>Ammar Naufaldi</t>
+  </si>
+  <si>
+    <t>Perbanyak Project kelompok agar dapat bekerjasama dengan baik</t>
+  </si>
+  <si>
+    <t>signatureImage/60f28c3c0ebbb.png</t>
+  </si>
+  <si>
+    <t>2021-07-28</t>
+  </si>
+  <si>
+    <t>PT. Jaya Abadi Sejahtera</t>
+  </si>
+  <si>
+    <t>Vivi lara</t>
+  </si>
+  <si>
+    <t>Teknisi Mesin Junior</t>
+  </si>
+  <si>
+    <t>D3 Teknik Mesin</t>
+  </si>
+  <si>
+    <t>Lita Nurhayati</t>
+  </si>
+  <si>
+    <t>signatureImage/60f28d0746bbd.png</t>
+  </si>
+  <si>
+    <t>2021-08-05</t>
+  </si>
+  <si>
+    <t>Hafizh Muhammad</t>
+  </si>
+  <si>
+    <t>Teknisi Junior</t>
+  </si>
+  <si>
+    <t>signatureImage/60f28e79791c3.png</t>
+  </si>
+  <si>
+    <t>2021-08-31</t>
+  </si>
+  <si>
+    <t>Baba Bibi</t>
+  </si>
+  <si>
+    <t>signatureImage/60f28ebee7dde.png</t>
+  </si>
+  <si>
+    <t>2023-10-17</t>
+  </si>
+  <si>
+    <t>PT. Salehudin</t>
+  </si>
+  <si>
+    <t>Caca Syarif</t>
+  </si>
+  <si>
+    <t>Nana Abdi Nur</t>
+  </si>
+  <si>
+    <t>signatureImage/60f28f1b73258.png</t>
+  </si>
+  <si>
+    <t>2021-08-30</t>
   </si>
   <si>
     <t>pln jakarta</t>
   </si>
   <si>
-    <t>Multinasional</t>
-  </si>
-  <si>
-    <t>zaza</t>
-  </si>
-  <si>
-    <t>manager</t>
-  </si>
-  <si>
-    <t>Sedang</t>
-  </si>
-  <si>
-    <t>dono</t>
-  </si>
-  <si>
-    <t>2021-06-25</t>
-  </si>
-  <si>
-    <t>PLN</t>
-  </si>
-  <si>
-    <t>Rendah</t>
-  </si>
-  <si>
-    <t>signatureImage/60d18a32a922b.png</t>
-  </si>
-  <si>
-    <t>signatureImage/60d18a8528cd5.png</t>
-  </si>
-  <si>
-    <t>2021-06-24</t>
-  </si>
-  <si>
-    <t>Lokal/Wilayah/Berwirausaha tidak berbadan hukum</t>
-  </si>
-  <si>
-    <t>S1 Teknik Elektro</t>
-  </si>
-  <si>
-    <t>Tinggi</t>
-  </si>
-  <si>
-    <t>signatureImage/60d18ab16f2d4.png</t>
-  </si>
-  <si>
-    <t>signatureImage/60d18c7566468.png</t>
-  </si>
-  <si>
-    <t>2021-06-19</t>
-  </si>
-  <si>
-    <t>S1 Teknik Informatika</t>
-  </si>
-  <si>
-    <t>signatureImage/60d18cbb4bbd8.png</t>
-  </si>
-  <si>
-    <t>2021-06-18</t>
-  </si>
-  <si>
-    <t>S1 Teknik Mesin</t>
-  </si>
-  <si>
-    <t>signatureImage/60d18dac57bba.png</t>
-  </si>
-  <si>
-    <t>S1 Teknik Sipil</t>
-  </si>
-  <si>
-    <t>signatureImage/60d2af823540a.png</t>
-  </si>
-  <si>
-    <t>signatureImage/60d2b4b4ee092.png</t>
-  </si>
-  <si>
-    <t>signatureImage/60d2b57a526c8.png</t>
-  </si>
-  <si>
-    <t>signatureImage/60d2b5d844c21.png</t>
-  </si>
-  <si>
-    <t>signatureImage/60d2cb567f14f.png</t>
-  </si>
-  <si>
-    <t>signatureImage/60d2cc4a61f83.png</t>
-  </si>
-  <si>
-    <t>signatureImage/60d2cc7f713f1.png</t>
-  </si>
-  <si>
-    <t>signatureImage/60d2cd1c1a222.png</t>
-  </si>
-  <si>
-    <t>signatureImage/60d2cf0e36ad2.png</t>
-  </si>
-  <si>
-    <t>signatureImage/60d2d2eeb866c.png</t>
-  </si>
-  <si>
-    <t>signatureImage/60d2d30fdcffa.png</t>
-  </si>
-  <si>
-    <t>signatureImage/60d2d3375ff1a.png</t>
-  </si>
-  <si>
-    <t>signatureImage/60d2d5d144aed.png</t>
-  </si>
-  <si>
-    <t>signatureImage/60d2d628865fa.png</t>
-  </si>
-  <si>
-    <t>2021-07-13</t>
-  </si>
-  <si>
-    <t>signatureImage/60deda5a0392e.png</t>
+    <t>Hilma Xavier</t>
+  </si>
+  <si>
+    <t>signatureImage/60f28f5d3aff5.png</t>
+  </si>
+  <si>
+    <t>2021-08-22</t>
+  </si>
+  <si>
+    <t>Vino</t>
+  </si>
+  <si>
+    <t>signatureImage/60f291159247c.png</t>
+  </si>
+  <si>
+    <t>2021-08-19</t>
+  </si>
+  <si>
+    <t>signatureImage/60f2941fe9c8b.png</t>
+  </si>
+  <si>
+    <t>Dodong</t>
+  </si>
+  <si>
+    <t>Inspektur</t>
+  </si>
+  <si>
+    <t>Jamaludin</t>
+  </si>
+  <si>
+    <t>signatureImage/60f2a952efe07.png</t>
   </si>
   <si>
     <t>Rata-Rata</t>
@@ -566,31 +653,31 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:R27"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="O27" sqref="O27"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="3.427734" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="15.281982" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="29.421387" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="56.557617" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="13.996582" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="17.567139" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="18.709717" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="24.708252" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="25.85083" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="19.995117" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="18.709717" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="18.709717" bestFit="true" customWidth="true" style="0"/>
     <col min="11" max="11" width="30.563965" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="36.419678" bestFit="true" customWidth="true" style="0"/>
     <col min="13" max="13" width="28.135986" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="18.709717" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="21.137695" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="17" max="17" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="72.982178" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="17.567139" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="38.847656" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -669,109 +756,119 @@
       <c r="F4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="H4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I4" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K4" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L4" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M4" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N4" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O4" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R4" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="H5" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1">
         <v>3</v>
       </c>
       <c r="K5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M5" s="1">
         <v>4</v>
       </c>
       <c r="N5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O5" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R5" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="H6" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I6" s="1">
         <v>4</v>
@@ -783,10 +880,10 @@
         <v>2</v>
       </c>
       <c r="L6" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M6" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N6" s="1">
         <v>3</v>
@@ -796,10 +893,10 @@
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -807,23 +904,25 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="H7" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I7" s="1">
         <v>4</v>
@@ -844,14 +943,14 @@
         <v>3</v>
       </c>
       <c r="O7" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -859,53 +958,53 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="I8" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J8" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K8" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L8" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -913,26 +1012,26 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="I9" s="1">
         <v>4</v>
       </c>
@@ -940,7 +1039,7 @@
         <v>3</v>
       </c>
       <c r="K9" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L9" s="1">
         <v>3</v>
@@ -949,17 +1048,19 @@
         <v>2</v>
       </c>
       <c r="N9" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O9" s="1">
         <v>4</v>
       </c>
-      <c r="P9" s="1"/>
+      <c r="P9" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="Q9" s="1" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -967,53 +1068,53 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I10" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J10" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M10" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N10" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O10" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1021,53 +1122,53 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I11" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J11" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K11" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L11" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M11" s="1">
         <v>3</v>
       </c>
       <c r="N11" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O11" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1075,53 +1176,53 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="I12" s="1">
         <v>4</v>
       </c>
       <c r="J12" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K12" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L12" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M12" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N12" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O12" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1129,25 +1230,25 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I13" s="1">
         <v>4</v>
@@ -1156,26 +1257,26 @@
         <v>3</v>
       </c>
       <c r="K13" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L13" s="1">
         <v>4</v>
       </c>
       <c r="M13" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N13" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O13" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="1" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1183,53 +1284,53 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I14" s="1">
         <v>4</v>
       </c>
       <c r="J14" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K14" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L14" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M14" s="1">
         <v>4</v>
       </c>
       <c r="N14" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O14" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1237,31 +1338,31 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I15" s="1">
         <v>4</v>
       </c>
       <c r="J15" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K15" s="1">
         <v>4</v>
@@ -1280,10 +1381,10 @@
       </c>
       <c r="P15" s="1"/>
       <c r="Q15" s="1" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -1291,25 +1392,25 @@
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I16" s="1">
         <v>4</v>
@@ -1318,10 +1419,10 @@
         <v>3</v>
       </c>
       <c r="K16" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L16" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M16" s="1">
         <v>4</v>
@@ -1334,10 +1435,10 @@
       </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1345,25 +1446,25 @@
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I17" s="1">
         <v>4</v>
@@ -1372,545 +1473,59 @@
         <v>3</v>
       </c>
       <c r="K17" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L17" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M17" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N17" s="1">
         <v>4</v>
       </c>
       <c r="O17" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P17" s="1"/>
       <c r="Q17" s="1" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="1">
-        <v>15</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I18" s="1">
-        <v>4</v>
-      </c>
-      <c r="J18" s="1">
-        <v>3</v>
-      </c>
-      <c r="K18" s="1">
-        <v>4</v>
-      </c>
-      <c r="L18" s="1">
-        <v>4</v>
-      </c>
-      <c r="M18" s="1">
-        <v>4</v>
-      </c>
-      <c r="N18" s="1">
-        <v>4</v>
-      </c>
-      <c r="O18" s="1">
-        <v>4</v>
-      </c>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="A19" s="1">
-        <v>16</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I19" s="1">
-        <v>4</v>
-      </c>
-      <c r="J19" s="1">
-        <v>3</v>
-      </c>
-      <c r="K19" s="1">
-        <v>4</v>
-      </c>
-      <c r="L19" s="1">
-        <v>4</v>
-      </c>
-      <c r="M19" s="1">
-        <v>4</v>
-      </c>
-      <c r="N19" s="1">
-        <v>4</v>
-      </c>
-      <c r="O19" s="1">
-        <v>4</v>
-      </c>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
-      <c r="A20" s="1">
-        <v>17</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I20" s="1">
-        <v>4</v>
-      </c>
-      <c r="J20" s="1">
-        <v>3</v>
-      </c>
-      <c r="K20" s="1">
-        <v>4</v>
-      </c>
-      <c r="L20" s="1">
-        <v>4</v>
-      </c>
-      <c r="M20" s="1">
-        <v>4</v>
-      </c>
-      <c r="N20" s="1">
-        <v>4</v>
-      </c>
-      <c r="O20" s="1">
-        <v>4</v>
-      </c>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
-      <c r="A21" s="1">
-        <v>18</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I21" s="1">
-        <v>4</v>
-      </c>
-      <c r="J21" s="1">
-        <v>3</v>
-      </c>
-      <c r="K21" s="1">
-        <v>4</v>
-      </c>
-      <c r="L21" s="1">
-        <v>4</v>
-      </c>
-      <c r="M21" s="1">
-        <v>4</v>
-      </c>
-      <c r="N21" s="1">
-        <v>4</v>
-      </c>
-      <c r="O21" s="1">
-        <v>4</v>
-      </c>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
-      <c r="A22" s="1">
-        <v>19</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I22" s="1">
-        <v>4</v>
-      </c>
-      <c r="J22" s="1">
-        <v>3</v>
-      </c>
-      <c r="K22" s="1">
-        <v>4</v>
-      </c>
-      <c r="L22" s="1">
-        <v>4</v>
-      </c>
-      <c r="M22" s="1">
-        <v>4</v>
-      </c>
-      <c r="N22" s="1">
-        <v>4</v>
-      </c>
-      <c r="O22" s="1">
-        <v>4</v>
-      </c>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
-      <c r="A23" s="1">
-        <v>20</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I23" s="1">
-        <v>4</v>
-      </c>
-      <c r="J23" s="1">
-        <v>3</v>
-      </c>
-      <c r="K23" s="1">
-        <v>4</v>
-      </c>
-      <c r="L23" s="1">
-        <v>4</v>
-      </c>
-      <c r="M23" s="1">
-        <v>4</v>
-      </c>
-      <c r="N23" s="1">
-        <v>4</v>
-      </c>
-      <c r="O23" s="1">
-        <v>4</v>
-      </c>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R23" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
-      <c r="A24" s="1">
-        <v>21</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I24" s="1">
-        <v>4</v>
-      </c>
-      <c r="J24" s="1">
-        <v>3</v>
-      </c>
-      <c r="K24" s="1">
-        <v>4</v>
-      </c>
-      <c r="L24" s="1">
-        <v>4</v>
-      </c>
-      <c r="M24" s="1">
-        <v>4</v>
-      </c>
-      <c r="N24" s="1">
-        <v>4</v>
-      </c>
-      <c r="O24" s="1">
-        <v>4</v>
-      </c>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R24" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
-      <c r="A25" s="1">
-        <v>22</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I25" s="1">
-        <v>4</v>
-      </c>
-      <c r="J25" s="1">
-        <v>3</v>
-      </c>
-      <c r="K25" s="1">
-        <v>4</v>
-      </c>
-      <c r="L25" s="1">
-        <v>4</v>
-      </c>
-      <c r="M25" s="1">
-        <v>4</v>
-      </c>
-      <c r="N25" s="1">
-        <v>4</v>
-      </c>
-      <c r="O25" s="1">
-        <v>4</v>
-      </c>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R25" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18">
-      <c r="A26" s="1">
-        <v>23</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I26" s="1">
-        <v>4</v>
-      </c>
-      <c r="J26" s="1">
-        <v>3</v>
-      </c>
-      <c r="K26" s="1">
-        <v>3</v>
-      </c>
-      <c r="L26" s="1">
-        <v>4</v>
-      </c>
-      <c r="M26" s="1">
-        <v>4</v>
-      </c>
-      <c r="N26" s="1">
-        <v>3</v>
-      </c>
-      <c r="O26" s="1">
-        <v>3</v>
-      </c>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R26" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18">
-      <c r="H27" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="H18" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I18" s="3">
         <f>AVERAGE(I:I)</f>
-        <v>3.625</v>
-      </c>
-      <c r="J27" s="3">
+        <v>3.2666666666667</v>
+      </c>
+      <c r="J18" s="3">
         <f>AVERAGE(J:J)</f>
-        <v>2.7916666666667</v>
-      </c>
-      <c r="K27" s="3">
+        <v>2.8666666666667</v>
+      </c>
+      <c r="K18" s="3">
         <f>AVERAGE(K:K)</f>
-        <v>3.375</v>
-      </c>
-      <c r="L27" s="3">
+        <v>2.3333333333333</v>
+      </c>
+      <c r="L18" s="3">
         <f>AVERAGE(L:L)</f>
-        <v>3.4583333333333</v>
-      </c>
-      <c r="M27" s="3">
+        <v>2.5333333333333</v>
+      </c>
+      <c r="M18" s="3">
         <f>AVERAGE(M:M)</f>
-        <v>3.4583333333333</v>
-      </c>
-      <c r="N27" s="3">
+        <v>2.7333333333333</v>
+      </c>
+      <c r="N18" s="3">
         <f>AVERAGE(N:N)</f>
-        <v>3.2916666666667</v>
-      </c>
-      <c r="O27" s="3">
+        <v>2.7333333333333</v>
+      </c>
+      <c r="O18" s="3">
         <f>AVERAGE(O:O)</f>
-        <v>3.625</v>
+        <v>2.7333333333333</v>
       </c>
     </row>
   </sheetData>
